--- a/demo_results/comparative_ct/Freja/qpcr.xlsx
+++ b/demo_results/comparative_ct/Freja/qpcr.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4073" uniqueCount="450">
   <si>
     <t>filename</t>
   </si>
@@ -1262,46 +1262,46 @@
     <t>calibration_method</t>
   </si>
   <si>
+    <t>ct_GAPDH</t>
+  </si>
+  <si>
     <t>ct_FAN1</t>
   </si>
   <si>
-    <t>ct_GAPDH</t>
-  </si>
-  <si>
     <t>ct_ATP5B</t>
   </si>
   <si>
     <t>ct_EIF4A2</t>
   </si>
   <si>
+    <t>cmct_GAPDH</t>
+  </si>
+  <si>
     <t>cmct_FAN1</t>
   </si>
   <si>
-    <t>cmct_GAPDH</t>
-  </si>
-  <si>
     <t>cmct_ATP5B</t>
   </si>
   <si>
     <t>cmct_EIF4A2</t>
   </si>
   <si>
+    <t>dct_GAPDH</t>
+  </si>
+  <si>
     <t>dct_FAN1</t>
   </si>
   <si>
-    <t>dct_GAPDH</t>
-  </si>
-  <si>
     <t>dct_ATP5B</t>
   </si>
   <si>
     <t>dct_EIF4A2</t>
   </si>
   <si>
+    <t>twodct_GAPDH</t>
+  </si>
+  <si>
     <t>twodct_FAN1</t>
-  </si>
-  <si>
-    <t>twodct_GAPDH</t>
   </si>
   <si>
     <t>twodct_ATP5B</t>
@@ -15652,13 +15652,13 @@
         <v>1.0</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L2" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15.881054878234863</v>
       </c>
       <c r="M2" t="n">
         <v>1.0</v>
@@ -15699,13 +15699,13 @@
         <v>1.0</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L3" t="n">
-        <v>32.2125244140625</v>
+        <v>15.748677253723145</v>
       </c>
       <c r="M3" t="n">
         <v>2.0</v>
@@ -15746,13 +15746,13 @@
         <v>1.0</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15.883685111999512</v>
       </c>
       <c r="M4" t="n">
         <v>3.0</v>
@@ -15793,13 +15793,13 @@
         <v>#N/A</v>
       </c>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L5" t="n">
+        <v>28.58591079711914</v>
       </c>
       <c r="M5" t="n">
         <v>1.0</v>
@@ -15840,10 +15840,10 @@
         <v>#N/A</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
@@ -15887,13 +15887,13 @@
         <v>#N/A</v>
       </c>
       <c r="J7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L7" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L7" t="n">
+        <v>15.974312782287598</v>
       </c>
       <c r="M7" t="n">
         <v>1.0</v>
@@ -15934,13 +15934,13 @@
         <v>#N/A</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
-      </c>
-      <c r="L8" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15.92764377593994</v>
       </c>
       <c r="M8" t="n">
         <v>2.0</v>
@@ -15981,13 +15981,13 @@
         <v>#N/A</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16.052045822143555</v>
       </c>
       <c r="M9" t="n">
         <v>3.0</v>
@@ -16028,10 +16028,10 @@
         <v>#N/A</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
@@ -16075,10 +16075,10 @@
         <v>#N/A</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
@@ -16122,13 +16122,13 @@
         <v>#N/A</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>165</v>
-      </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16.736127853393555</v>
       </c>
       <c r="M12" t="n">
         <v>1.0</v>
@@ -16169,13 +16169,13 @@
         <v>#N/A</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K13" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L13" t="n">
+        <v>16.876745223999023</v>
       </c>
       <c r="M13" t="n">
         <v>2.0</v>
@@ -16216,13 +16216,13 @@
         <v>#N/A</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16.831058502197266</v>
       </c>
       <c r="M14" t="n">
         <v>3.0</v>
@@ -16263,10 +16263,10 @@
         <v>#N/A</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
@@ -16310,10 +16310,10 @@
         <v>#N/A</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
@@ -16357,13 +16357,13 @@
         <v>1.0</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L17" t="n">
+        <v>15.988773345947266</v>
       </c>
       <c r="M17" t="n">
         <v>1.0</v>
@@ -16404,13 +16404,13 @@
         <v>1.0</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15.94283962249756</v>
       </c>
       <c r="M18" t="n">
         <v>2.0</v>
@@ -16451,13 +16451,13 @@
         <v>1.0</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L19" t="n">
+        <v>16.08729362487793</v>
       </c>
       <c r="M19" t="n">
         <v>3.0</v>
@@ -16498,13 +16498,13 @@
         <v>#N/A</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L20" t="n">
+        <v>16.095287322998047</v>
       </c>
       <c r="M20" t="n">
         <v>1.0</v>
@@ -16545,13 +16545,13 @@
         <v>#N/A</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16.011274337768555</v>
       </c>
       <c r="M21" t="n">
         <v>2.0</v>
@@ -16592,13 +16592,13 @@
         <v>#N/A</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L22" t="n">
+        <v>15.98361873626709</v>
       </c>
       <c r="M22" t="n">
         <v>3.0</v>
@@ -16639,13 +16639,13 @@
         <v>#N/A</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L23" t="n">
+        <v>17.515544891357422</v>
       </c>
       <c r="M23" t="n">
         <v>1.0</v>
@@ -16686,13 +16686,13 @@
         <v>#N/A</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17.5042781829834</v>
       </c>
       <c r="M24" t="n">
         <v>2.0</v>
@@ -16733,13 +16733,13 @@
         <v>#N/A</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" t="e">
-        <v>#N/A</v>
+        <v>166</v>
+      </c>
+      <c r="L25" t="n">
+        <v>17.411714553833008</v>
       </c>
       <c r="M25" t="n">
         <v>3.0</v>
@@ -16748,36 +16748,36 @@
         <v>1.5</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C26" t="e">
         <v>#N/A</v>
       </c>
       <c r="D26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" t="s">
-        <v>395</v>
-      </c>
-      <c r="G26" t="s">
-        <v>396</v>
-      </c>
-      <c r="H26" t="s">
-        <v>397</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.0</v>
+        <v>391</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J26" t="s">
         <v>171</v>
@@ -16785,11 +16785,11 @@
       <c r="K26" t="s">
         <v>165</v>
       </c>
-      <c r="L26" t="n">
-        <v>24.048627853393555</v>
+      <c r="L26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M26" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="N26" t="n">
         <v>1.5</v>
@@ -16800,31 +16800,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C27" t="e">
         <v>#N/A</v>
       </c>
       <c r="D27" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" t="s">
-        <v>395</v>
-      </c>
-      <c r="G27" t="s">
-        <v>396</v>
-      </c>
-      <c r="H27" t="s">
-        <v>397</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.0</v>
+        <v>392</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J27" t="s">
         <v>171</v>
@@ -16832,11 +16832,11 @@
       <c r="K27" t="s">
         <v>165</v>
       </c>
-      <c r="L27" t="n">
-        <v>24.19248580932617</v>
+      <c r="L27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="N27" t="n">
         <v>1.5</v>
@@ -16847,31 +16847,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C28" t="e">
         <v>#N/A</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" t="s">
-        <v>395</v>
-      </c>
-      <c r="G28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H28" t="s">
-        <v>397</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.0</v>
+        <v>391</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J28" t="s">
         <v>171</v>
@@ -16879,11 +16879,11 @@
       <c r="K28" t="s">
         <v>165</v>
       </c>
-      <c r="L28" t="n">
-        <v>24.071571350097656</v>
+      <c r="L28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M28" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="N28" t="n">
         <v>1.5</v>
@@ -16894,19 +16894,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C29" t="e">
         <v>#N/A</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
@@ -16926,11 +16926,11 @@
       <c r="K29" t="s">
         <v>165</v>
       </c>
-      <c r="L29" t="n">
-        <v>37.7646484375</v>
+      <c r="L29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M29" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="N29" t="n">
         <v>1.5</v>
@@ -16941,19 +16941,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C30" t="e">
         <v>#N/A</v>
       </c>
       <c r="D30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
@@ -16973,11 +16973,11 @@
       <c r="K30" t="s">
         <v>165</v>
       </c>
-      <c r="L30" t="n">
-        <v>38.50731658935546</v>
+      <c r="L30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M30" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N30" t="n">
         <v>1.5</v>
@@ -16988,28 +16988,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C31" t="e">
         <v>#N/A</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" t="s">
-        <v>395</v>
-      </c>
-      <c r="G31" t="s">
-        <v>396</v>
-      </c>
-      <c r="H31" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I31" t="e">
         <v>#N/A</v>
@@ -17020,11 +17020,11 @@
       <c r="K31" t="s">
         <v>165</v>
       </c>
-      <c r="L31" t="n">
-        <v>24.418079376220703</v>
+      <c r="L31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M31" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N31" t="n">
         <v>1.5</v>
@@ -17038,16 +17038,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C32" t="e">
         <v>#N/A</v>
       </c>
       <c r="D32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F32" t="s">
         <v>395</v>
@@ -17056,10 +17056,10 @@
         <v>396</v>
       </c>
       <c r="H32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.0</v>
       </c>
       <c r="J32" t="s">
         <v>171</v>
@@ -17068,10 +17068,10 @@
         <v>165</v>
       </c>
       <c r="L32" t="n">
-        <v>24.3443660736084</v>
+        <v>24.048627853393555</v>
       </c>
       <c r="M32" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="N32" t="n">
         <v>1.5</v>
@@ -17085,16 +17085,16 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C33" t="e">
         <v>#N/A</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
         <v>395</v>
@@ -17103,10 +17103,10 @@
         <v>396</v>
       </c>
       <c r="H33" t="s">
-        <v>398</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.0</v>
       </c>
       <c r="J33" t="s">
         <v>171</v>
@@ -17115,16 +17115,16 @@
         <v>165</v>
       </c>
       <c r="L33" t="n">
-        <v>24.465234756469727</v>
+        <v>24.19248580932617</v>
       </c>
       <c r="M33" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="N33" t="n">
         <v>1.5</v>
       </c>
       <c r="O33" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
@@ -17132,28 +17132,28 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C34" t="e">
         <v>#N/A</v>
       </c>
       <c r="D34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E34" t="s">
-        <v>391</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#N/A</v>
+        <v>157</v>
+      </c>
+      <c r="F34" t="s">
+        <v>395</v>
+      </c>
+      <c r="G34" t="s">
+        <v>396</v>
+      </c>
+      <c r="H34" t="s">
+        <v>397</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.0</v>
       </c>
       <c r="J34" t="s">
         <v>171</v>
@@ -17161,11 +17161,11 @@
       <c r="K34" t="s">
         <v>165</v>
       </c>
-      <c r="L34" t="e">
-        <v>#N/A</v>
+      <c r="L34" t="n">
+        <v>24.071571350097656</v>
       </c>
       <c r="M34" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N34" t="n">
         <v>1.5</v>
@@ -17179,16 +17179,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C35" t="e">
         <v>#N/A</v>
       </c>
       <c r="D35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
@@ -17209,10 +17209,10 @@
         <v>165</v>
       </c>
       <c r="L35" t="n">
-        <v>38.497196197509766</v>
+        <v>37.7646484375</v>
       </c>
       <c r="M35" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="N35" t="n">
         <v>1.5</v>
@@ -17226,25 +17226,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C36" t="e">
         <v>#N/A</v>
       </c>
       <c r="D36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E36" t="s">
-        <v>393</v>
-      </c>
-      <c r="F36" t="s">
-        <v>395</v>
-      </c>
-      <c r="G36" t="s">
-        <v>396</v>
-      </c>
-      <c r="H36" t="s">
-        <v>399</v>
+        <v>392</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I36" t="e">
         <v>#N/A</v>
@@ -17256,7 +17256,7 @@
         <v>165</v>
       </c>
       <c r="L36" t="n">
-        <v>25.72334289550781</v>
+        <v>38.50731658935546</v>
       </c>
       <c r="M36" t="n">
         <v>4.0</v>
@@ -17265,7 +17265,7 @@
         <v>1.5</v>
       </c>
       <c r="O36" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -17273,16 +17273,16 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C37" t="e">
         <v>#N/A</v>
       </c>
       <c r="D37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E37" t="s">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="F37" t="s">
         <v>395</v>
@@ -17291,7 +17291,7 @@
         <v>396</v>
       </c>
       <c r="H37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I37" t="e">
         <v>#N/A</v>
@@ -17303,10 +17303,10 @@
         <v>165</v>
       </c>
       <c r="L37" t="n">
-        <v>26.008304595947266</v>
+        <v>24.418079376220703</v>
       </c>
       <c r="M37" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="N37" t="n">
         <v>1.5</v>
@@ -17320,16 +17320,16 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C38" t="e">
         <v>#N/A</v>
       </c>
       <c r="D38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E38" t="s">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
         <v>395</v>
@@ -17338,7 +17338,7 @@
         <v>396</v>
       </c>
       <c r="H38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I38" t="e">
         <v>#N/A</v>
@@ -17350,10 +17350,10 @@
         <v>165</v>
       </c>
       <c r="L38" t="n">
-        <v>26.00940704345703</v>
+        <v>24.3443660736084</v>
       </c>
       <c r="M38" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="N38" t="n">
         <v>1.5</v>
@@ -17367,25 +17367,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C39" t="e">
         <v>#N/A</v>
       </c>
       <c r="D39" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E39" t="s">
-        <v>391</v>
-      </c>
-      <c r="F39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H39" t="e">
-        <v>#N/A</v>
+        <v>160</v>
+      </c>
+      <c r="F39" t="s">
+        <v>395</v>
+      </c>
+      <c r="G39" t="s">
+        <v>396</v>
+      </c>
+      <c r="H39" t="s">
+        <v>398</v>
       </c>
       <c r="I39" t="e">
         <v>#N/A</v>
@@ -17396,11 +17396,11 @@
       <c r="K39" t="s">
         <v>165</v>
       </c>
-      <c r="L39" t="e">
-        <v>#N/A</v>
+      <c r="L39" t="n">
+        <v>24.465234756469727</v>
       </c>
       <c r="M39" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="N39" t="n">
         <v>1.5</v>
@@ -17414,16 +17414,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C40" t="e">
         <v>#N/A</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F40" t="e">
         <v>#N/A</v>
@@ -17443,17 +17443,17 @@
       <c r="K40" t="s">
         <v>165</v>
       </c>
-      <c r="L40" t="n">
-        <v>36.92498016357422</v>
+      <c r="L40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M40" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="N40" t="n">
         <v>1.5</v>
       </c>
       <c r="O40" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -17461,28 +17461,28 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C41" t="e">
         <v>#N/A</v>
       </c>
       <c r="D41" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" t="s">
-        <v>395</v>
-      </c>
-      <c r="G41" t="s">
-        <v>396</v>
-      </c>
-      <c r="H41" t="s">
-        <v>397</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.0</v>
+        <v>392</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J41" t="s">
         <v>171</v>
@@ -17491,10 +17491,10 @@
         <v>165</v>
       </c>
       <c r="L41" t="n">
-        <v>24.52137565612793</v>
+        <v>38.497196197509766</v>
       </c>
       <c r="M41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="N41" t="n">
         <v>1.5</v>
@@ -17508,16 +17508,16 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C42" t="e">
         <v>#N/A</v>
       </c>
       <c r="D42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="F42" t="s">
         <v>395</v>
@@ -17526,10 +17526,10 @@
         <v>396</v>
       </c>
       <c r="H42" t="s">
-        <v>397</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.0</v>
+        <v>399</v>
+      </c>
+      <c r="I42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J42" t="s">
         <v>171</v>
@@ -17538,16 +17538,16 @@
         <v>165</v>
       </c>
       <c r="L42" t="n">
-        <v>24.36501121520996</v>
+        <v>25.72334289550781</v>
       </c>
       <c r="M42" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="N42" t="n">
         <v>1.5</v>
       </c>
       <c r="O42" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43">
@@ -17555,16 +17555,16 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C43" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="F43" t="s">
         <v>395</v>
@@ -17573,10 +17573,10 @@
         <v>396</v>
       </c>
       <c r="H43" t="s">
-        <v>397</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.0</v>
+        <v>399</v>
+      </c>
+      <c r="I43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J43" t="s">
         <v>171</v>
@@ -17585,10 +17585,10 @@
         <v>165</v>
       </c>
       <c r="L43" t="n">
-        <v>24.68910789489746</v>
+        <v>26.008304595947266</v>
       </c>
       <c r="M43" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="N43" t="n">
         <v>1.5</v>
@@ -17602,16 +17602,16 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C44" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E44" t="s">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="F44" t="s">
         <v>395</v>
@@ -17620,7 +17620,7 @@
         <v>396</v>
       </c>
       <c r="H44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I44" t="e">
         <v>#N/A</v>
@@ -17632,10 +17632,10 @@
         <v>165</v>
       </c>
       <c r="L44" t="n">
-        <v>23.751628875732425</v>
+        <v>26.00940704345703</v>
       </c>
       <c r="M44" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N44" t="n">
         <v>1.5</v>
@@ -17649,25 +17649,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C45" t="e">
         <v>#N/A</v>
       </c>
       <c r="D45" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" t="s">
-        <v>395</v>
-      </c>
-      <c r="G45" t="s">
-        <v>396</v>
-      </c>
-      <c r="H45" t="s">
-        <v>398</v>
+        <v>391</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I45" t="e">
         <v>#N/A</v>
@@ -17678,11 +17678,11 @@
       <c r="K45" t="s">
         <v>165</v>
       </c>
-      <c r="L45" t="n">
-        <v>24.006200790405277</v>
+      <c r="L45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M45" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="N45" t="n">
         <v>1.5</v>
@@ -17696,25 +17696,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C46" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" t="s">
-        <v>395</v>
-      </c>
-      <c r="G46" t="s">
-        <v>396</v>
-      </c>
-      <c r="H46" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I46" t="e">
         <v>#N/A</v>
@@ -17726,7 +17726,7 @@
         <v>165</v>
       </c>
       <c r="L46" t="n">
-        <v>24.29122543334961</v>
+        <v>36.92498016357422</v>
       </c>
       <c r="M46" t="n">
         <v>6.0</v>
@@ -17735,7 +17735,7 @@
         <v>1.5</v>
       </c>
       <c r="O46" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47">
@@ -17743,16 +17743,16 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C47" t="e">
         <v>#N/A</v>
       </c>
       <c r="D47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E47" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F47" t="s">
         <v>395</v>
@@ -17761,10 +17761,10 @@
         <v>396</v>
       </c>
       <c r="H47" t="s">
-        <v>399</v>
-      </c>
-      <c r="I47" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.0</v>
       </c>
       <c r="J47" t="s">
         <v>171</v>
@@ -17773,10 +17773,10 @@
         <v>165</v>
       </c>
       <c r="L47" t="n">
-        <v>25.88670921325684</v>
+        <v>24.52137565612793</v>
       </c>
       <c r="M47" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="N47" t="n">
         <v>1.5</v>
@@ -17790,16 +17790,16 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C48" t="e">
         <v>#N/A</v>
       </c>
       <c r="D48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E48" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F48" t="s">
         <v>395</v>
@@ -17808,10 +17808,10 @@
         <v>396</v>
       </c>
       <c r="H48" t="s">
-        <v>399</v>
-      </c>
-      <c r="I48" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.0</v>
       </c>
       <c r="J48" t="s">
         <v>171</v>
@@ -17820,10 +17820,10 @@
         <v>165</v>
       </c>
       <c r="L48" t="n">
-        <v>26.408411026000977</v>
+        <v>24.36501121520996</v>
       </c>
       <c r="M48" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="N48" t="n">
         <v>1.5</v>
@@ -17837,16 +17837,16 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C49" t="e">
         <v>#N/A</v>
       </c>
       <c r="D49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E49" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F49" t="s">
         <v>395</v>
@@ -17855,10 +17855,10 @@
         <v>396</v>
       </c>
       <c r="H49" t="s">
-        <v>399</v>
-      </c>
-      <c r="I49" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.0</v>
       </c>
       <c r="J49" t="s">
         <v>171</v>
@@ -17867,10 +17867,10 @@
         <v>165</v>
       </c>
       <c r="L49" t="n">
-        <v>26.67100524902344</v>
+        <v>24.68910789489746</v>
       </c>
       <c r="M49" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="N49" t="n">
         <v>1.5</v>
@@ -17881,19 +17881,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C50" t="e">
         <v>#N/A</v>
       </c>
       <c r="D50" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F50" t="s">
         <v>395</v>
@@ -17902,19 +17902,19 @@
         <v>396</v>
       </c>
       <c r="H50" t="s">
-        <v>397</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L50" t="n">
-        <v>15.881054878234863</v>
+        <v>23.751628875732425</v>
       </c>
       <c r="M50" t="n">
         <v>1.0</v>
@@ -17928,19 +17928,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C51" t="e">
         <v>#N/A</v>
       </c>
       <c r="D51" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
         <v>395</v>
@@ -17949,19 +17949,19 @@
         <v>396</v>
       </c>
       <c r="H51" t="s">
-        <v>397</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L51" t="n">
-        <v>15.748677253723145</v>
+        <v>24.006200790405277</v>
       </c>
       <c r="M51" t="n">
         <v>2.0</v>
@@ -17970,24 +17970,24 @@
         <v>1.5</v>
       </c>
       <c r="O51" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C52" t="e">
         <v>#N/A</v>
       </c>
       <c r="D52" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F52" t="s">
         <v>395</v>
@@ -17996,19 +17996,19 @@
         <v>396</v>
       </c>
       <c r="H52" t="s">
-        <v>397</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L52" t="n">
-        <v>15.883685111999512</v>
+        <v>24.29122543334961</v>
       </c>
       <c r="M52" t="n">
         <v>3.0</v>
@@ -18022,40 +18022,40 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C53" t="e">
         <v>#N/A</v>
       </c>
       <c r="D53" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E53" t="s">
-        <v>391</v>
-      </c>
-      <c r="F53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H53" t="e">
-        <v>#N/A</v>
+        <v>394</v>
+      </c>
+      <c r="F53" t="s">
+        <v>395</v>
+      </c>
+      <c r="G53" t="s">
+        <v>396</v>
+      </c>
+      <c r="H53" t="s">
+        <v>399</v>
       </c>
       <c r="I53" t="e">
         <v>#N/A</v>
       </c>
       <c r="J53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L53" t="n">
-        <v>28.58591079711914</v>
+        <v>25.88670921325684</v>
       </c>
       <c r="M53" t="n">
         <v>1.0</v>
@@ -18069,43 +18069,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C54" t="e">
         <v>#N/A</v>
       </c>
       <c r="D54" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E54" t="s">
-        <v>392</v>
-      </c>
-      <c r="F54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H54" t="e">
-        <v>#N/A</v>
+        <v>394</v>
+      </c>
+      <c r="F54" t="s">
+        <v>395</v>
+      </c>
+      <c r="G54" t="s">
+        <v>396</v>
+      </c>
+      <c r="H54" t="s">
+        <v>399</v>
       </c>
       <c r="I54" t="e">
         <v>#N/A</v>
       </c>
       <c r="J54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K54" t="s">
-        <v>166</v>
-      </c>
-      <c r="L54" t="e">
-        <v>#N/A</v>
+        <v>165</v>
+      </c>
+      <c r="L54" t="n">
+        <v>26.408411026000977</v>
       </c>
       <c r="M54" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="N54" t="n">
         <v>1.5</v>
@@ -18116,19 +18116,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C55" t="e">
         <v>#N/A</v>
       </c>
       <c r="D55" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="F55" t="s">
         <v>395</v>
@@ -18137,22 +18137,22 @@
         <v>396</v>
       </c>
       <c r="H55" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I55" t="e">
         <v>#N/A</v>
       </c>
       <c r="J55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L55" t="n">
-        <v>15.974312782287598</v>
+        <v>26.67100524902344</v>
       </c>
       <c r="M55" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N55" t="n">
         <v>1.5</v>
@@ -18166,16 +18166,16 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C56" t="e">
         <v>#N/A</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
         <v>395</v>
@@ -18184,28 +18184,28 @@
         <v>396</v>
       </c>
       <c r="H56" t="s">
-        <v>398</v>
-      </c>
-      <c r="I56" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.0</v>
       </c>
       <c r="J56" t="s">
         <v>172</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L56" t="n">
-        <v>15.92764377593994</v>
+        <v>17.43703842163086</v>
       </c>
       <c r="M56" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N56" t="n">
         <v>1.5</v>
       </c>
       <c r="O56" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57">
@@ -18213,16 +18213,16 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C57" t="e">
         <v>#N/A</v>
       </c>
       <c r="D57" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F57" t="s">
         <v>395</v>
@@ -18231,22 +18231,22 @@
         <v>396</v>
       </c>
       <c r="H57" t="s">
-        <v>398</v>
-      </c>
-      <c r="I57" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0</v>
       </c>
       <c r="J57" t="s">
         <v>172</v>
       </c>
       <c r="K57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L57" t="n">
-        <v>16.052045822143555</v>
+        <v>17.841623306274414</v>
       </c>
       <c r="M57" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N57" t="n">
         <v>1.5</v>
@@ -18260,40 +18260,40 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C58" t="e">
         <v>#N/A</v>
       </c>
       <c r="D58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E58" t="s">
-        <v>391</v>
-      </c>
-      <c r="F58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I58" t="e">
-        <v>#N/A</v>
+        <v>157</v>
+      </c>
+      <c r="F58" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" t="s">
+        <v>396</v>
+      </c>
+      <c r="H58" t="s">
+        <v>397</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.0</v>
       </c>
       <c r="J58" t="s">
         <v>172</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
-      </c>
-      <c r="L58" t="e">
-        <v>#N/A</v>
+        <v>167</v>
+      </c>
+      <c r="L58" t="n">
+        <v>17.80618667602539</v>
       </c>
       <c r="M58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N58" t="n">
         <v>1.5</v>
@@ -18307,16 +18307,16 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C59" t="e">
         <v>#N/A</v>
       </c>
       <c r="D59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F59" t="e">
         <v>#N/A</v>
@@ -18334,13 +18334,13 @@
         <v>172</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L59" t="e">
         <v>#N/A</v>
       </c>
       <c r="M59" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N59" t="n">
         <v>1.5</v>
@@ -18354,25 +18354,25 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C60" t="e">
         <v>#N/A</v>
       </c>
       <c r="D60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E60" t="s">
-        <v>393</v>
-      </c>
-      <c r="F60" t="s">
-        <v>395</v>
-      </c>
-      <c r="G60" t="s">
-        <v>396</v>
-      </c>
-      <c r="H60" t="s">
-        <v>399</v>
+        <v>392</v>
+      </c>
+      <c r="F60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I60" t="e">
         <v>#N/A</v>
@@ -18381,10 +18381,10 @@
         <v>172</v>
       </c>
       <c r="K60" t="s">
-        <v>166</v>
-      </c>
-      <c r="L60" t="n">
-        <v>16.736127853393555</v>
+        <v>167</v>
+      </c>
+      <c r="L60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M60" t="n">
         <v>1.0</v>
@@ -18401,16 +18401,16 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C61" t="e">
         <v>#N/A</v>
       </c>
       <c r="D61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E61" t="s">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="F61" t="s">
         <v>395</v>
@@ -18419,7 +18419,7 @@
         <v>396</v>
       </c>
       <c r="H61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I61" t="e">
         <v>#N/A</v>
@@ -18428,13 +18428,13 @@
         <v>172</v>
       </c>
       <c r="K61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L61" t="n">
-        <v>16.876745223999023</v>
+        <v>17.95647430419922</v>
       </c>
       <c r="M61" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N61" t="n">
         <v>1.5</v>
@@ -18448,16 +18448,16 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C62" t="e">
         <v>#N/A</v>
       </c>
       <c r="D62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E62" t="s">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="F62" t="s">
         <v>395</v>
@@ -18466,7 +18466,7 @@
         <v>396</v>
       </c>
       <c r="H62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I62" t="e">
         <v>#N/A</v>
@@ -18475,13 +18475,13 @@
         <v>172</v>
       </c>
       <c r="K62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L62" t="n">
-        <v>16.831058502197266</v>
+        <v>17.999616622924805</v>
       </c>
       <c r="M62" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N62" t="n">
         <v>1.5</v>
@@ -18495,25 +18495,25 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C63" t="e">
         <v>#N/A</v>
       </c>
       <c r="D63" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E63" t="s">
-        <v>391</v>
-      </c>
-      <c r="F63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H63" t="e">
-        <v>#N/A</v>
+        <v>160</v>
+      </c>
+      <c r="F63" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" t="s">
+        <v>396</v>
+      </c>
+      <c r="H63" t="s">
+        <v>398</v>
       </c>
       <c r="I63" t="e">
         <v>#N/A</v>
@@ -18522,10 +18522,10 @@
         <v>172</v>
       </c>
       <c r="K63" t="s">
-        <v>166</v>
-      </c>
-      <c r="L63" t="e">
-        <v>#N/A</v>
+        <v>167</v>
+      </c>
+      <c r="L63" t="n">
+        <v>18.01475715637207</v>
       </c>
       <c r="M63" t="n">
         <v>3.0</v>
@@ -18542,16 +18542,16 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C64" t="e">
         <v>#N/A</v>
       </c>
       <c r="D64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F64" t="e">
         <v>#N/A</v>
@@ -18569,13 +18569,13 @@
         <v>172</v>
       </c>
       <c r="K64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L64" t="e">
         <v>#N/A</v>
       </c>
       <c r="M64" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N64" t="n">
         <v>1.5</v>
@@ -18589,40 +18589,40 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C65" t="e">
         <v>#N/A</v>
       </c>
       <c r="D65" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F65" t="s">
-        <v>395</v>
-      </c>
-      <c r="G65" t="s">
-        <v>396</v>
-      </c>
-      <c r="H65" t="s">
-        <v>397</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.0</v>
+        <v>392</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J65" t="s">
         <v>172</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
-      </c>
-      <c r="L65" t="n">
-        <v>15.988773345947266</v>
+        <v>167</v>
+      </c>
+      <c r="L65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M65" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="N65" t="n">
         <v>1.5</v>
@@ -18636,16 +18636,16 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C66" t="e">
         <v>#N/A</v>
       </c>
       <c r="D66" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="F66" t="s">
         <v>395</v>
@@ -18654,22 +18654,22 @@
         <v>396</v>
       </c>
       <c r="H66" t="s">
-        <v>397</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.0</v>
+        <v>399</v>
+      </c>
+      <c r="I66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J66" t="s">
         <v>172</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L66" t="n">
-        <v>15.94283962249756</v>
+        <v>19.168235778808597</v>
       </c>
       <c r="M66" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N66" t="n">
         <v>1.5</v>
@@ -18683,16 +18683,16 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C67" t="e">
         <v>#N/A</v>
       </c>
       <c r="D67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="F67" t="s">
         <v>395</v>
@@ -18701,22 +18701,22 @@
         <v>396</v>
       </c>
       <c r="H67" t="s">
-        <v>397</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.0</v>
+        <v>399</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J67" t="s">
         <v>172</v>
       </c>
       <c r="K67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L67" t="n">
-        <v>16.08729362487793</v>
+        <v>19.238454818725582</v>
       </c>
       <c r="M67" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N67" t="n">
         <v>1.5</v>
@@ -18730,16 +18730,16 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C68" t="e">
         <v>#N/A</v>
       </c>
       <c r="D68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="F68" t="s">
         <v>395</v>
@@ -18748,7 +18748,7 @@
         <v>396</v>
       </c>
       <c r="H68" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I68" t="e">
         <v>#N/A</v>
@@ -18757,13 +18757,13 @@
         <v>172</v>
       </c>
       <c r="K68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L68" t="n">
-        <v>16.095287322998047</v>
+        <v>19.27349281311035</v>
       </c>
       <c r="M68" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N68" t="n">
         <v>1.5</v>
@@ -18777,25 +18777,25 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C69" t="e">
         <v>#N/A</v>
       </c>
       <c r="D69" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" t="s">
-        <v>395</v>
-      </c>
-      <c r="G69" t="s">
-        <v>396</v>
-      </c>
-      <c r="H69" t="s">
-        <v>398</v>
+        <v>391</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I69" t="e">
         <v>#N/A</v>
@@ -18804,13 +18804,13 @@
         <v>172</v>
       </c>
       <c r="K69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L69" t="n">
-        <v>16.011274337768555</v>
+        <v>26.615196228027344</v>
       </c>
       <c r="M69" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N69" t="n">
         <v>1.5</v>
@@ -18824,25 +18824,25 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C70" t="e">
         <v>#N/A</v>
       </c>
       <c r="D70" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
-      </c>
-      <c r="F70" t="s">
-        <v>395</v>
-      </c>
-      <c r="G70" t="s">
-        <v>396</v>
-      </c>
-      <c r="H70" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I70" t="e">
         <v>#N/A</v>
@@ -18851,10 +18851,10 @@
         <v>172</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
-      </c>
-      <c r="L70" t="n">
-        <v>15.98361873626709</v>
+        <v>167</v>
+      </c>
+      <c r="L70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M70" t="n">
         <v>3.0</v>
@@ -18871,16 +18871,16 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C71" t="e">
         <v>#N/A</v>
       </c>
       <c r="D71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E71" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F71" t="s">
         <v>395</v>
@@ -18889,19 +18889,19 @@
         <v>396</v>
       </c>
       <c r="H71" t="s">
-        <v>399</v>
-      </c>
-      <c r="I71" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.0</v>
       </c>
       <c r="J71" t="s">
         <v>172</v>
       </c>
       <c r="K71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L71" t="n">
-        <v>17.515544891357422</v>
+        <v>18.02545166015625</v>
       </c>
       <c r="M71" t="n">
         <v>1.0</v>
@@ -18918,16 +18918,16 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C72" t="e">
         <v>#N/A</v>
       </c>
       <c r="D72" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E72" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F72" t="s">
         <v>395</v>
@@ -18936,19 +18936,19 @@
         <v>396</v>
       </c>
       <c r="H72" t="s">
-        <v>399</v>
-      </c>
-      <c r="I72" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.0</v>
       </c>
       <c r="J72" t="s">
         <v>172</v>
       </c>
       <c r="K72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L72" t="n">
-        <v>17.5042781829834</v>
+        <v>17.968345642089844</v>
       </c>
       <c r="M72" t="n">
         <v>2.0</v>
@@ -18965,16 +18965,16 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C73" t="e">
         <v>#N/A</v>
       </c>
       <c r="D73" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E73" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F73" t="s">
         <v>395</v>
@@ -18983,19 +18983,19 @@
         <v>396</v>
       </c>
       <c r="H73" t="s">
-        <v>399</v>
-      </c>
-      <c r="I73" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.0</v>
       </c>
       <c r="J73" t="s">
         <v>172</v>
       </c>
       <c r="K73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L73" t="n">
-        <v>17.411714553833008</v>
+        <v>18.06038856506348</v>
       </c>
       <c r="M73" t="n">
         <v>3.0</v>
@@ -19004,7 +19004,7 @@
         <v>1.5</v>
       </c>
       <c r="O73" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
@@ -19012,16 +19012,16 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C74" t="e">
         <v>#N/A</v>
       </c>
       <c r="D74" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F74" t="s">
         <v>395</v>
@@ -19030,10 +19030,10 @@
         <v>396</v>
       </c>
       <c r="H74" t="s">
-        <v>397</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J74" t="s">
         <v>172</v>
@@ -19042,7 +19042,7 @@
         <v>167</v>
       </c>
       <c r="L74" t="n">
-        <v>17.43703842163086</v>
+        <v>17.516263961791992</v>
       </c>
       <c r="M74" t="n">
         <v>1.0</v>
@@ -19051,7 +19051,7 @@
         <v>1.5</v>
       </c>
       <c r="O74" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
@@ -19059,16 +19059,16 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C75" t="e">
         <v>#N/A</v>
       </c>
       <c r="D75" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F75" t="s">
         <v>395</v>
@@ -19077,10 +19077,10 @@
         <v>396</v>
       </c>
       <c r="H75" t="s">
-        <v>397</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J75" t="s">
         <v>172</v>
@@ -19089,7 +19089,7 @@
         <v>167</v>
       </c>
       <c r="L75" t="n">
-        <v>17.841623306274414</v>
+        <v>17.518444061279297</v>
       </c>
       <c r="M75" t="n">
         <v>2.0</v>
@@ -19106,16 +19106,16 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C76" t="e">
         <v>#N/A</v>
       </c>
       <c r="D76" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F76" t="s">
         <v>395</v>
@@ -19124,10 +19124,10 @@
         <v>396</v>
       </c>
       <c r="H76" t="s">
-        <v>397</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J76" t="s">
         <v>172</v>
@@ -19136,7 +19136,7 @@
         <v>167</v>
       </c>
       <c r="L76" t="n">
-        <v>17.80618667602539</v>
+        <v>17.775653839111328</v>
       </c>
       <c r="M76" t="n">
         <v>3.0</v>
@@ -19145,7 +19145,7 @@
         <v>1.5</v>
       </c>
       <c r="O76" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77">
@@ -19153,25 +19153,25 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C77" t="e">
         <v>#N/A</v>
       </c>
       <c r="D77" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E77" t="s">
-        <v>391</v>
-      </c>
-      <c r="F77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H77" t="e">
-        <v>#N/A</v>
+        <v>394</v>
+      </c>
+      <c r="F77" t="s">
+        <v>395</v>
+      </c>
+      <c r="G77" t="s">
+        <v>396</v>
+      </c>
+      <c r="H77" t="s">
+        <v>399</v>
       </c>
       <c r="I77" t="e">
         <v>#N/A</v>
@@ -19182,8 +19182,8 @@
       <c r="K77" t="s">
         <v>167</v>
       </c>
-      <c r="L77" t="e">
-        <v>#N/A</v>
+      <c r="L77" t="n">
+        <v>20.2982234954834</v>
       </c>
       <c r="M77" t="n">
         <v>1.0</v>
@@ -19200,25 +19200,25 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C78" t="e">
         <v>#N/A</v>
       </c>
       <c r="D78" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E78" t="s">
-        <v>392</v>
-      </c>
-      <c r="F78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H78" t="e">
-        <v>#N/A</v>
+        <v>394</v>
+      </c>
+      <c r="F78" t="s">
+        <v>395</v>
+      </c>
+      <c r="G78" t="s">
+        <v>396</v>
+      </c>
+      <c r="H78" t="s">
+        <v>399</v>
       </c>
       <c r="I78" t="e">
         <v>#N/A</v>
@@ -19229,17 +19229,17 @@
       <c r="K78" t="s">
         <v>167</v>
       </c>
-      <c r="L78" t="e">
-        <v>#N/A</v>
+      <c r="L78" t="n">
+        <v>20.68561363220215</v>
       </c>
       <c r="M78" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="N78" t="n">
         <v>1.5</v>
       </c>
       <c r="O78" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79">
@@ -19247,16 +19247,16 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C79" t="e">
         <v>#N/A</v>
       </c>
       <c r="D79" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="F79" t="s">
         <v>395</v>
@@ -19265,7 +19265,7 @@
         <v>396</v>
       </c>
       <c r="H79" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I79" t="e">
         <v>#N/A</v>
@@ -19277,10 +19277,10 @@
         <v>167</v>
       </c>
       <c r="L79" t="n">
-        <v>17.95647430419922</v>
+        <v>20.26557159423828</v>
       </c>
       <c r="M79" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N79" t="n">
         <v>1.5</v>
@@ -19294,16 +19294,16 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C80" t="e">
         <v>#N/A</v>
       </c>
       <c r="D80" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
         <v>395</v>
@@ -19312,28 +19312,28 @@
         <v>396</v>
       </c>
       <c r="H80" t="s">
-        <v>398</v>
-      </c>
-      <c r="I80" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.0</v>
       </c>
       <c r="J80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L80" t="n">
-        <v>17.999616622924805</v>
+        <v>19.157270431518555</v>
       </c>
       <c r="M80" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N80" t="n">
         <v>1.5</v>
       </c>
       <c r="O80" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81">
@@ -19341,16 +19341,16 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C81" t="e">
         <v>#N/A</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
         <v>395</v>
@@ -19359,22 +19359,22 @@
         <v>396</v>
       </c>
       <c r="H81" t="s">
-        <v>398</v>
-      </c>
-      <c r="I81" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.0</v>
       </c>
       <c r="J81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L81" t="n">
-        <v>18.01475715637207</v>
+        <v>19.487977981567383</v>
       </c>
       <c r="M81" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N81" t="n">
         <v>1.5</v>
@@ -19388,40 +19388,40 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C82" t="e">
         <v>#N/A</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E82" t="s">
-        <v>391</v>
-      </c>
-      <c r="F82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I82" t="e">
-        <v>#N/A</v>
+        <v>157</v>
+      </c>
+      <c r="F82" t="s">
+        <v>395</v>
+      </c>
+      <c r="G82" t="s">
+        <v>396</v>
+      </c>
+      <c r="H82" t="s">
+        <v>397</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.0</v>
       </c>
       <c r="J82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K82" t="s">
-        <v>167</v>
-      </c>
-      <c r="L82" t="e">
-        <v>#N/A</v>
+        <v>168</v>
+      </c>
+      <c r="L82" t="n">
+        <v>19.4588565826416</v>
       </c>
       <c r="M82" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N82" t="n">
         <v>1.5</v>
@@ -19435,16 +19435,16 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C83" t="e">
         <v>#N/A</v>
       </c>
       <c r="D83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E83" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F83" t="e">
         <v>#N/A</v>
@@ -19459,16 +19459,16 @@
         <v>#N/A</v>
       </c>
       <c r="J83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L83" t="e">
         <v>#N/A</v>
       </c>
       <c r="M83" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N83" t="n">
         <v>1.5</v>
@@ -19482,37 +19482,37 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C84" t="e">
         <v>#N/A</v>
       </c>
       <c r="D84" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E84" t="s">
-        <v>393</v>
-      </c>
-      <c r="F84" t="s">
-        <v>395</v>
-      </c>
-      <c r="G84" t="s">
-        <v>396</v>
-      </c>
-      <c r="H84" t="s">
-        <v>399</v>
+        <v>392</v>
+      </c>
+      <c r="F84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I84" t="e">
         <v>#N/A</v>
       </c>
       <c r="J84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K84" t="s">
-        <v>167</v>
-      </c>
-      <c r="L84" t="n">
-        <v>19.168235778808597</v>
+        <v>168</v>
+      </c>
+      <c r="L84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M84" t="n">
         <v>1.0</v>
@@ -19529,16 +19529,16 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C85" t="e">
         <v>#N/A</v>
       </c>
       <c r="D85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E85" t="s">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
         <v>395</v>
@@ -19547,22 +19547,22 @@
         <v>396</v>
       </c>
       <c r="H85" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I85" t="e">
         <v>#N/A</v>
       </c>
       <c r="J85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L85" t="n">
-        <v>19.238454818725582</v>
+        <v>19.27448844909668</v>
       </c>
       <c r="M85" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N85" t="n">
         <v>1.5</v>
@@ -19576,16 +19576,16 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C86" t="e">
         <v>#N/A</v>
       </c>
       <c r="D86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E86" t="s">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
         <v>395</v>
@@ -19594,22 +19594,22 @@
         <v>396</v>
       </c>
       <c r="H86" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I86" t="e">
         <v>#N/A</v>
       </c>
       <c r="J86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L86" t="n">
-        <v>19.27349281311035</v>
+        <v>19.598133087158203</v>
       </c>
       <c r="M86" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N86" t="n">
         <v>1.5</v>
@@ -19623,37 +19623,37 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C87" t="e">
         <v>#N/A</v>
       </c>
       <c r="D87" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E87" t="s">
-        <v>391</v>
-      </c>
-      <c r="F87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H87" t="e">
-        <v>#N/A</v>
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
+        <v>395</v>
+      </c>
+      <c r="G87" t="s">
+        <v>396</v>
+      </c>
+      <c r="H87" t="s">
+        <v>398</v>
       </c>
       <c r="I87" t="e">
         <v>#N/A</v>
       </c>
       <c r="J87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L87" t="n">
-        <v>26.615196228027344</v>
+        <v>19.78999137878418</v>
       </c>
       <c r="M87" t="n">
         <v>3.0</v>
@@ -19670,16 +19670,16 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C88" t="e">
         <v>#N/A</v>
       </c>
       <c r="D88" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F88" t="e">
         <v>#N/A</v>
@@ -19694,16 +19694,16 @@
         <v>#N/A</v>
       </c>
       <c r="J88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L88" t="e">
         <v>#N/A</v>
       </c>
       <c r="M88" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N88" t="n">
         <v>1.5</v>
@@ -19717,40 +19717,40 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C89" t="e">
         <v>#N/A</v>
       </c>
       <c r="D89" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E89" t="s">
-        <v>162</v>
-      </c>
-      <c r="F89" t="s">
-        <v>395</v>
-      </c>
-      <c r="G89" t="s">
-        <v>396</v>
-      </c>
-      <c r="H89" t="s">
-        <v>397</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.0</v>
+        <v>392</v>
+      </c>
+      <c r="F89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K89" t="s">
-        <v>167</v>
-      </c>
-      <c r="L89" t="n">
-        <v>18.02545166015625</v>
+        <v>168</v>
+      </c>
+      <c r="L89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M89" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="N89" t="n">
         <v>1.5</v>
@@ -19764,16 +19764,16 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C90" t="e">
         <v>#N/A</v>
       </c>
       <c r="D90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E90" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="F90" t="s">
         <v>395</v>
@@ -19782,22 +19782,22 @@
         <v>396</v>
       </c>
       <c r="H90" t="s">
-        <v>397</v>
-      </c>
-      <c r="I90" t="n">
+        <v>399</v>
+      </c>
+      <c r="I90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J90" t="s">
+        <v>171</v>
+      </c>
+      <c r="K90" t="s">
+        <v>168</v>
+      </c>
+      <c r="L90" t="n">
+        <v>20.79658889770508</v>
+      </c>
+      <c r="M90" t="n">
         <v>1.0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>172</v>
-      </c>
-      <c r="K90" t="s">
-        <v>167</v>
-      </c>
-      <c r="L90" t="n">
-        <v>17.968345642089844</v>
-      </c>
-      <c r="M90" t="n">
-        <v>2.0</v>
       </c>
       <c r="N90" t="n">
         <v>1.5</v>
@@ -19811,16 +19811,16 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C91" t="e">
         <v>#N/A</v>
       </c>
       <c r="D91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="F91" t="s">
         <v>395</v>
@@ -19829,22 +19829,22 @@
         <v>396</v>
       </c>
       <c r="H91" t="s">
-        <v>397</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.0</v>
+        <v>399</v>
+      </c>
+      <c r="I91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L91" t="n">
-        <v>18.06038856506348</v>
+        <v>20.595001220703125</v>
       </c>
       <c r="M91" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N91" t="n">
         <v>1.5</v>
@@ -19858,16 +19858,16 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C92" t="e">
         <v>#N/A</v>
       </c>
       <c r="D92" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="F92" t="s">
         <v>395</v>
@@ -19876,22 +19876,22 @@
         <v>396</v>
       </c>
       <c r="H92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I92" t="e">
         <v>#N/A</v>
       </c>
       <c r="J92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L92" t="n">
-        <v>17.516263961791992</v>
+        <v>20.63773536682129</v>
       </c>
       <c r="M92" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N92" t="n">
         <v>1.5</v>
@@ -19905,40 +19905,40 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C93" t="e">
         <v>#N/A</v>
       </c>
       <c r="D93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
-      </c>
-      <c r="F93" t="s">
-        <v>395</v>
-      </c>
-      <c r="G93" t="s">
-        <v>396</v>
-      </c>
-      <c r="H93" t="s">
-        <v>398</v>
+        <v>391</v>
+      </c>
+      <c r="F93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I93" t="e">
         <v>#N/A</v>
       </c>
       <c r="J93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K93" t="s">
-        <v>167</v>
-      </c>
-      <c r="L93" t="n">
-        <v>17.518444061279297</v>
+        <v>168</v>
+      </c>
+      <c r="L93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M93" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N93" t="n">
         <v>1.5</v>
@@ -19952,37 +19952,37 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C94" t="e">
         <v>#N/A</v>
       </c>
       <c r="D94" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
-      </c>
-      <c r="F94" t="s">
-        <v>395</v>
-      </c>
-      <c r="G94" t="s">
-        <v>396</v>
-      </c>
-      <c r="H94" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="F94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I94" t="e">
         <v>#N/A</v>
       </c>
       <c r="J94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K94" t="s">
-        <v>167</v>
-      </c>
-      <c r="L94" t="n">
-        <v>17.775653839111328</v>
+        <v>168</v>
+      </c>
+      <c r="L94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M94" t="n">
         <v>3.0</v>
@@ -19991,7 +19991,7 @@
         <v>1.5</v>
       </c>
       <c r="O94" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
@@ -19999,16 +19999,16 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C95" t="e">
         <v>#N/A</v>
       </c>
       <c r="D95" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E95" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F95" t="s">
         <v>395</v>
@@ -20017,19 +20017,19 @@
         <v>396</v>
       </c>
       <c r="H95" t="s">
-        <v>399</v>
-      </c>
-      <c r="I95" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.0</v>
       </c>
       <c r="J95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L95" t="n">
-        <v>20.2982234954834</v>
+        <v>19.686359405517575</v>
       </c>
       <c r="M95" t="n">
         <v>1.0</v>
@@ -20046,16 +20046,16 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C96" t="e">
         <v>#N/A</v>
       </c>
       <c r="D96" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F96" t="s">
         <v>395</v>
@@ -20064,19 +20064,19 @@
         <v>396</v>
       </c>
       <c r="H96" t="s">
-        <v>399</v>
-      </c>
-      <c r="I96" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.0</v>
       </c>
       <c r="J96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L96" t="n">
-        <v>20.68561363220215</v>
+        <v>19.690755844116207</v>
       </c>
       <c r="M96" t="n">
         <v>2.0</v>
@@ -20085,7 +20085,7 @@
         <v>1.5</v>
       </c>
       <c r="O96" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
@@ -20093,16 +20093,16 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C97" t="e">
         <v>#N/A</v>
       </c>
       <c r="D97" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E97" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="F97" t="s">
         <v>395</v>
@@ -20111,19 +20111,19 @@
         <v>396</v>
       </c>
       <c r="H97" t="s">
-        <v>399</v>
-      </c>
-      <c r="I97" t="e">
-        <v>#N/A</v>
+        <v>397</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.0</v>
       </c>
       <c r="J97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L97" t="n">
-        <v>20.26557159423828</v>
+        <v>19.57819366455078</v>
       </c>
       <c r="M97" t="n">
         <v>3.0</v>
@@ -20132,7 +20132,7 @@
         <v>1.5</v>
       </c>
       <c r="O97" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98">
@@ -20140,16 +20140,16 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C98" t="e">
         <v>#N/A</v>
       </c>
       <c r="D98" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F98" t="s">
         <v>395</v>
@@ -20158,10 +20158,10 @@
         <v>396</v>
       </c>
       <c r="H98" t="s">
-        <v>397</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I98" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J98" t="s">
         <v>171</v>
@@ -20170,7 +20170,7 @@
         <v>168</v>
       </c>
       <c r="L98" t="n">
-        <v>19.157270431518555</v>
+        <v>19.14062118530273</v>
       </c>
       <c r="M98" t="n">
         <v>1.0</v>
@@ -20179,7 +20179,7 @@
         <v>1.5</v>
       </c>
       <c r="O98" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
@@ -20187,16 +20187,16 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C99" t="e">
         <v>#N/A</v>
       </c>
       <c r="D99" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F99" t="s">
         <v>395</v>
@@ -20205,10 +20205,10 @@
         <v>396</v>
       </c>
       <c r="H99" t="s">
-        <v>397</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J99" t="s">
         <v>171</v>
@@ -20217,7 +20217,7 @@
         <v>168</v>
       </c>
       <c r="L99" t="n">
-        <v>19.487977981567383</v>
+        <v>19.094337463378903</v>
       </c>
       <c r="M99" t="n">
         <v>2.0</v>
@@ -20234,16 +20234,16 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C100" t="e">
         <v>#N/A</v>
       </c>
       <c r="D100" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F100" t="s">
         <v>395</v>
@@ -20252,10 +20252,10 @@
         <v>396</v>
       </c>
       <c r="H100" t="s">
-        <v>397</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.0</v>
+        <v>398</v>
+      </c>
+      <c r="I100" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J100" t="s">
         <v>171</v>
@@ -20264,7 +20264,7 @@
         <v>168</v>
       </c>
       <c r="L100" t="n">
-        <v>19.4588565826416</v>
+        <v>19.31419944763184</v>
       </c>
       <c r="M100" t="n">
         <v>3.0</v>
@@ -20281,25 +20281,25 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C101" t="e">
         <v>#N/A</v>
       </c>
       <c r="D101" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E101" t="s">
-        <v>391</v>
-      </c>
-      <c r="F101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H101" t="e">
-        <v>#N/A</v>
+        <v>394</v>
+      </c>
+      <c r="F101" t="s">
+        <v>395</v>
+      </c>
+      <c r="G101" t="s">
+        <v>396</v>
+      </c>
+      <c r="H101" t="s">
+        <v>399</v>
       </c>
       <c r="I101" t="e">
         <v>#N/A</v>
@@ -20310,8 +20310,8 @@
       <c r="K101" t="s">
         <v>168</v>
       </c>
-      <c r="L101" t="e">
-        <v>#N/A</v>
+      <c r="L101" t="n">
+        <v>20.831926345825195</v>
       </c>
       <c r="M101" t="n">
         <v>1.0</v>
@@ -20328,25 +20328,25 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C102" t="e">
         <v>#N/A</v>
       </c>
       <c r="D102" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E102" t="s">
-        <v>392</v>
-      </c>
-      <c r="F102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H102" t="e">
-        <v>#N/A</v>
+        <v>394</v>
+      </c>
+      <c r="F102" t="s">
+        <v>395</v>
+      </c>
+      <c r="G102" t="s">
+        <v>396</v>
+      </c>
+      <c r="H102" t="s">
+        <v>399</v>
       </c>
       <c r="I102" t="e">
         <v>#N/A</v>
@@ -20357,11 +20357,11 @@
       <c r="K102" t="s">
         <v>168</v>
       </c>
-      <c r="L102" t="e">
-        <v>#N/A</v>
+      <c r="L102" t="n">
+        <v>21.40052604675293</v>
       </c>
       <c r="M102" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="N102" t="n">
         <v>1.5</v>
@@ -20375,16 +20375,16 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C103" t="e">
         <v>#N/A</v>
       </c>
       <c r="D103" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E103" t="s">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="F103" t="s">
         <v>395</v>
@@ -20393,7 +20393,7 @@
         <v>396</v>
       </c>
       <c r="H103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I103" t="e">
         <v>#N/A</v>
@@ -20405,861 +20405,15 @@
         <v>168</v>
       </c>
       <c r="L103" t="n">
-        <v>19.27448844909668</v>
+        <v>21.259674072265625</v>
       </c>
       <c r="M103" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N103" t="n">
         <v>1.5</v>
       </c>
       <c r="O103" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" t="s">
-        <v>124</v>
-      </c>
-      <c r="C104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D104" t="s">
-        <v>386</v>
-      </c>
-      <c r="E104" t="s">
-        <v>160</v>
-      </c>
-      <c r="F104" t="s">
-        <v>395</v>
-      </c>
-      <c r="G104" t="s">
-        <v>396</v>
-      </c>
-      <c r="H104" t="s">
-        <v>398</v>
-      </c>
-      <c r="I104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J104" t="s">
-        <v>171</v>
-      </c>
-      <c r="K104" t="s">
-        <v>168</v>
-      </c>
-      <c r="L104" t="n">
-        <v>19.598133087158203</v>
-      </c>
-      <c r="M104" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O104" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" t="s">
-        <v>125</v>
-      </c>
-      <c r="C105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D105" t="s">
-        <v>386</v>
-      </c>
-      <c r="E105" t="s">
-        <v>160</v>
-      </c>
-      <c r="F105" t="s">
-        <v>395</v>
-      </c>
-      <c r="G105" t="s">
-        <v>396</v>
-      </c>
-      <c r="H105" t="s">
-        <v>398</v>
-      </c>
-      <c r="I105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J105" t="s">
-        <v>171</v>
-      </c>
-      <c r="K105" t="s">
-        <v>168</v>
-      </c>
-      <c r="L105" t="n">
-        <v>19.78999137878418</v>
-      </c>
-      <c r="M105" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O105" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D106" t="s">
-        <v>384</v>
-      </c>
-      <c r="E106" t="s">
-        <v>391</v>
-      </c>
-      <c r="F106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J106" t="s">
-        <v>171</v>
-      </c>
-      <c r="K106" t="s">
-        <v>168</v>
-      </c>
-      <c r="L106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M106" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O106" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D107" t="s">
-        <v>385</v>
-      </c>
-      <c r="E107" t="s">
-        <v>392</v>
-      </c>
-      <c r="F107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J107" t="s">
-        <v>171</v>
-      </c>
-      <c r="K107" t="s">
-        <v>168</v>
-      </c>
-      <c r="L107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M107" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B108" t="s">
-        <v>133</v>
-      </c>
-      <c r="C108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D108" t="s">
-        <v>387</v>
-      </c>
-      <c r="E108" t="s">
-        <v>393</v>
-      </c>
-      <c r="F108" t="s">
-        <v>395</v>
-      </c>
-      <c r="G108" t="s">
-        <v>396</v>
-      </c>
-      <c r="H108" t="s">
-        <v>399</v>
-      </c>
-      <c r="I108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J108" t="s">
-        <v>171</v>
-      </c>
-      <c r="K108" t="s">
-        <v>168</v>
-      </c>
-      <c r="L108" t="n">
-        <v>20.79658889770508</v>
-      </c>
-      <c r="M108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O108" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D109" t="s">
-        <v>387</v>
-      </c>
-      <c r="E109" t="s">
-        <v>393</v>
-      </c>
-      <c r="F109" t="s">
-        <v>395</v>
-      </c>
-      <c r="G109" t="s">
-        <v>396</v>
-      </c>
-      <c r="H109" t="s">
-        <v>399</v>
-      </c>
-      <c r="I109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J109" t="s">
-        <v>171</v>
-      </c>
-      <c r="K109" t="s">
-        <v>168</v>
-      </c>
-      <c r="L109" t="n">
-        <v>20.595001220703125</v>
-      </c>
-      <c r="M109" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O109" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D110" t="s">
-        <v>387</v>
-      </c>
-      <c r="E110" t="s">
-        <v>393</v>
-      </c>
-      <c r="F110" t="s">
-        <v>395</v>
-      </c>
-      <c r="G110" t="s">
-        <v>396</v>
-      </c>
-      <c r="H110" t="s">
-        <v>399</v>
-      </c>
-      <c r="I110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J110" t="s">
-        <v>171</v>
-      </c>
-      <c r="K110" t="s">
-        <v>168</v>
-      </c>
-      <c r="L110" t="n">
-        <v>20.63773536682129</v>
-      </c>
-      <c r="M110" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O110" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" t="s">
-        <v>136</v>
-      </c>
-      <c r="C111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D111" t="s">
-        <v>384</v>
-      </c>
-      <c r="E111" t="s">
-        <v>391</v>
-      </c>
-      <c r="F111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J111" t="s">
-        <v>171</v>
-      </c>
-      <c r="K111" t="s">
-        <v>168</v>
-      </c>
-      <c r="L111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M111" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O111" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" t="s">
-        <v>137</v>
-      </c>
-      <c r="C112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D112" t="s">
-        <v>385</v>
-      </c>
-      <c r="E112" t="s">
-        <v>392</v>
-      </c>
-      <c r="F112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J112" t="s">
-        <v>171</v>
-      </c>
-      <c r="K112" t="s">
-        <v>168</v>
-      </c>
-      <c r="L112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M112" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D113" t="s">
-        <v>388</v>
-      </c>
-      <c r="E113" t="s">
-        <v>162</v>
-      </c>
-      <c r="F113" t="s">
-        <v>395</v>
-      </c>
-      <c r="G113" t="s">
-        <v>396</v>
-      </c>
-      <c r="H113" t="s">
-        <v>397</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>171</v>
-      </c>
-      <c r="K113" t="s">
-        <v>168</v>
-      </c>
-      <c r="L113" t="n">
-        <v>19.686359405517575</v>
-      </c>
-      <c r="M113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" t="s">
-        <v>142</v>
-      </c>
-      <c r="C114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D114" t="s">
-        <v>388</v>
-      </c>
-      <c r="E114" t="s">
-        <v>162</v>
-      </c>
-      <c r="F114" t="s">
-        <v>395</v>
-      </c>
-      <c r="G114" t="s">
-        <v>396</v>
-      </c>
-      <c r="H114" t="s">
-        <v>397</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>171</v>
-      </c>
-      <c r="K114" t="s">
-        <v>168</v>
-      </c>
-      <c r="L114" t="n">
-        <v>19.690755844116207</v>
-      </c>
-      <c r="M114" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" t="s">
-        <v>143</v>
-      </c>
-      <c r="C115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D115" t="s">
-        <v>388</v>
-      </c>
-      <c r="E115" t="s">
-        <v>162</v>
-      </c>
-      <c r="F115" t="s">
-        <v>395</v>
-      </c>
-      <c r="G115" t="s">
-        <v>396</v>
-      </c>
-      <c r="H115" t="s">
-        <v>397</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J115" t="s">
-        <v>171</v>
-      </c>
-      <c r="K115" t="s">
-        <v>168</v>
-      </c>
-      <c r="L115" t="n">
-        <v>19.57819366455078</v>
-      </c>
-      <c r="M115" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O115" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116" t="s">
-        <v>147</v>
-      </c>
-      <c r="C116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D116" t="s">
-        <v>389</v>
-      </c>
-      <c r="E116" t="s">
-        <v>163</v>
-      </c>
-      <c r="F116" t="s">
-        <v>395</v>
-      </c>
-      <c r="G116" t="s">
-        <v>396</v>
-      </c>
-      <c r="H116" t="s">
-        <v>398</v>
-      </c>
-      <c r="I116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J116" t="s">
-        <v>171</v>
-      </c>
-      <c r="K116" t="s">
-        <v>168</v>
-      </c>
-      <c r="L116" t="n">
-        <v>19.14062118530273</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" t="s">
-        <v>148</v>
-      </c>
-      <c r="C117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D117" t="s">
-        <v>389</v>
-      </c>
-      <c r="E117" t="s">
-        <v>163</v>
-      </c>
-      <c r="F117" t="s">
-        <v>395</v>
-      </c>
-      <c r="G117" t="s">
-        <v>396</v>
-      </c>
-      <c r="H117" t="s">
-        <v>398</v>
-      </c>
-      <c r="I117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J117" t="s">
-        <v>171</v>
-      </c>
-      <c r="K117" t="s">
-        <v>168</v>
-      </c>
-      <c r="L117" t="n">
-        <v>19.094337463378903</v>
-      </c>
-      <c r="M117" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" t="s">
-        <v>149</v>
-      </c>
-      <c r="C118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D118" t="s">
-        <v>389</v>
-      </c>
-      <c r="E118" t="s">
-        <v>163</v>
-      </c>
-      <c r="F118" t="s">
-        <v>395</v>
-      </c>
-      <c r="G118" t="s">
-        <v>396</v>
-      </c>
-      <c r="H118" t="s">
-        <v>398</v>
-      </c>
-      <c r="I118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J118" t="s">
-        <v>171</v>
-      </c>
-      <c r="K118" t="s">
-        <v>168</v>
-      </c>
-      <c r="L118" t="n">
-        <v>19.31419944763184</v>
-      </c>
-      <c r="M118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D119" t="s">
-        <v>390</v>
-      </c>
-      <c r="E119" t="s">
-        <v>394</v>
-      </c>
-      <c r="F119" t="s">
-        <v>395</v>
-      </c>
-      <c r="G119" t="s">
-        <v>396</v>
-      </c>
-      <c r="H119" t="s">
-        <v>399</v>
-      </c>
-      <c r="I119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J119" t="s">
-        <v>171</v>
-      </c>
-      <c r="K119" t="s">
-        <v>168</v>
-      </c>
-      <c r="L119" t="n">
-        <v>20.831926345825195</v>
-      </c>
-      <c r="M119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O119" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" t="s">
-        <v>154</v>
-      </c>
-      <c r="C120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D120" t="s">
-        <v>390</v>
-      </c>
-      <c r="E120" t="s">
-        <v>394</v>
-      </c>
-      <c r="F120" t="s">
-        <v>395</v>
-      </c>
-      <c r="G120" t="s">
-        <v>396</v>
-      </c>
-      <c r="H120" t="s">
-        <v>399</v>
-      </c>
-      <c r="I120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J120" t="s">
-        <v>171</v>
-      </c>
-      <c r="K120" t="s">
-        <v>168</v>
-      </c>
-      <c r="L120" t="n">
-        <v>21.40052604675293</v>
-      </c>
-      <c r="M120" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="N120" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" t="s">
-        <v>155</v>
-      </c>
-      <c r="C121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D121" t="s">
-        <v>390</v>
-      </c>
-      <c r="E121" t="s">
-        <v>394</v>
-      </c>
-      <c r="F121" t="s">
-        <v>395</v>
-      </c>
-      <c r="G121" t="s">
-        <v>396</v>
-      </c>
-      <c r="H121" t="s">
-        <v>399</v>
-      </c>
-      <c r="I121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J121" t="s">
-        <v>171</v>
-      </c>
-      <c r="K121" t="s">
-        <v>168</v>
-      </c>
-      <c r="L121" t="n">
-        <v>21.259674072265625</v>
-      </c>
-      <c r="M121" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O121" t="s">
         <v>156</v>
       </c>
     </row>
@@ -21304,13 +20458,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -21319,24 +20473,24 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.104228337605793</v>
+        <v>15.882369995117188</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07728930712658386</v>
+        <v>0.001859856131088732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>391</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -21345,10 +20499,10 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
-        <v>37.7646484375</v>
+        <v>28.58591079711914</v>
       </c>
       <c r="H3" t="e">
         <v>#N/A</v>
@@ -21356,39 +20510,39 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>392</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38.50225639343262</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.007156197702356695</v>
+        <v>3.0</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>160</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -21397,50 +20551,50 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.40922673543294</v>
+        <v>15.984667460123697</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06091868810837868</v>
+        <v>0.06284410704058618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>393</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
-        <v>26.00885581970215</v>
+        <v>16.81464385986328</v>
       </c>
       <c r="H6" t="n">
-        <v>7.79548110057496E-4</v>
+        <v>0.07173138498044919</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>162</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -21449,24 +20603,24 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.52516492207845</v>
+        <v>16.006302197774254</v>
       </c>
       <c r="H7" t="n">
-        <v>0.16208156387587183</v>
+        <v>0.0738050485109675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>163</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -21475,44 +20629,44 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" t="n">
-        <v>24.016351699829105</v>
+        <v>16.030060132344563</v>
       </c>
       <c r="H8" t="n">
-        <v>0.26994146026440025</v>
+        <v>0.0581562367593651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>394</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G9" t="n">
-        <v>26.322041829427086</v>
+        <v>17.50991153717041</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3992177307152278</v>
+        <v>0.007966765892923234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>157</v>
@@ -21530,21 +20684,21 @@
         <v>2.0</v>
       </c>
       <c r="G10" t="n">
-        <v>15.882369995117188</v>
+        <v>24.060099601745605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001859856131088732</v>
+        <v>0.016223502103601416</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>391</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -21553,10 +20707,10 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G11" t="n">
-        <v>28.58591079711914</v>
+        <v>37.7646484375</v>
       </c>
       <c r="H11" t="e">
         <v>#N/A</v>
@@ -21564,33 +20718,33 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>392</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H12" t="e">
-        <v>#N/A</v>
+        <v>5.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>38.50225639343262</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.007156197702356695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>160</v>
@@ -21608,15 +20762,15 @@
         <v>3.0</v>
       </c>
       <c r="G13" t="n">
-        <v>15.984667460123697</v>
+        <v>24.40922673543294</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06284410704058618</v>
+        <v>0.06091868810837868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
         <v>393</v>
@@ -21625,24 +20779,24 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="n">
-        <v>16.81464385986328</v>
+        <v>26.00885581970215</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07173138498044919</v>
+        <v>7.79548110057496E-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
         <v>162</v>
@@ -21660,15 +20814,15 @@
         <v>3.0</v>
       </c>
       <c r="G15" t="n">
-        <v>16.006302197774254</v>
+        <v>24.52516492207845</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0738050485109675</v>
+        <v>0.16208156387587183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
         <v>163</v>
@@ -21686,15 +20840,15 @@
         <v>3.0</v>
       </c>
       <c r="G16" t="n">
-        <v>16.030060132344563</v>
+        <v>24.016351699829105</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0581562367593651</v>
+        <v>0.26994146026440025</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>394</v>
@@ -21703,19 +20857,19 @@
         <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G17" t="n">
-        <v>17.50991153717041</v>
+        <v>26.322041829427086</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007966765892923234</v>
+        <v>0.3992177307152278</v>
       </c>
     </row>
     <row r="18">
@@ -22372,10 +21526,10 @@
         <v>282</v>
       </c>
       <c r="E2" t="n">
-        <v>24.104228337605793</v>
+        <v>15.882369995117188</v>
       </c>
       <c r="F2" t="n">
-        <v>15.882369995117188</v>
+        <v>24.060099601745605</v>
       </c>
       <c r="G2" t="n">
         <v>17.823904991149902</v>
@@ -22384,10 +21538,10 @@
         <v>19.473417282104492</v>
       </c>
       <c r="I2" t="n">
-        <v>24.31469662984212</v>
+        <v>15.94433609644572</v>
       </c>
       <c r="J2" t="n">
-        <v>15.94433609644572</v>
+        <v>24.292632261912026</v>
       </c>
       <c r="K2" t="n">
         <v>17.92098347345988</v>
@@ -22396,10 +21550,10 @@
         <v>19.580987453460693</v>
       </c>
       <c r="M2" t="n">
-        <v>0.21046829223632812</v>
+        <v>0.061966101328533085</v>
       </c>
       <c r="N2" t="n">
-        <v>0.061966101328533085</v>
+        <v>0.23253266016642016</v>
       </c>
       <c r="O2" t="n">
         <v>0.0970784823099784</v>
@@ -22408,10 +21562,10 @@
         <v>0.10757017135620117</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.1570637005612898</v>
+        <v>1.0438873991529403</v>
       </c>
       <c r="R2" t="n">
-        <v>1.0438873991529403</v>
+        <v>1.1748956766004406</v>
       </c>
       <c r="S2" t="n">
         <v>1.0696052726068412</v>
@@ -22423,7 +21577,7 @@
         <v>1.0635380026343548</v>
       </c>
       <c r="V2" t="n">
-        <v>1.087938275543774</v>
+        <v>1.1047049317375175</v>
       </c>
     </row>
     <row r="3">
@@ -22440,10 +21594,10 @@
         <v>156</v>
       </c>
       <c r="E3" t="n">
+        <v>28.58591079711914</v>
+      </c>
+      <c r="F3" t="n">
         <v>37.7646484375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>28.58591079711914</v>
       </c>
       <c r="G3" t="n">
         <v>26.615196228027344</v>
@@ -22452,10 +21606,10 @@
         <v>#N/A</v>
       </c>
       <c r="I3" t="n">
-        <v>24.31469662984212</v>
+        <v>15.94433609644572</v>
       </c>
       <c r="J3" t="n">
-        <v>15.94433609644572</v>
+        <v>24.292632261912026</v>
       </c>
       <c r="K3" t="n">
         <v>17.92098347345988</v>
@@ -22464,10 +21618,10 @@
         <v>19.580987453460693</v>
       </c>
       <c r="M3" t="n">
-        <v>-13.449951807657879</v>
+        <v>-12.64157470067342</v>
       </c>
       <c r="N3" t="n">
-        <v>-12.64157470067342</v>
+        <v>-13.472016175587974</v>
       </c>
       <c r="O3" t="n">
         <v>-8.694212754567463</v>
@@ -22476,10 +21630,10 @@
         <v>#N/A</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.936368430458421E-5</v>
+        <v>1.5649729044104208E-4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5649729044104208E-4</v>
+        <v>8.800736722126604E-5</v>
       </c>
       <c r="S3" t="n">
         <v>0.0024142440636091664</v>
@@ -22507,12 +21661,12 @@
       <c r="D4" t="s">
         <v>156</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="n">
         <v>38.50225639343262</v>
       </c>
-      <c r="F4" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="G4" t="e">
         <v>#N/A</v>
       </c>
@@ -22520,10 +21674,10 @@
         <v>#N/A</v>
       </c>
       <c r="I4" t="n">
-        <v>24.31469662984212</v>
+        <v>15.94433609644572</v>
       </c>
       <c r="J4" t="n">
-        <v>15.94433609644572</v>
+        <v>24.292632261912026</v>
       </c>
       <c r="K4" t="n">
         <v>17.92098347345988</v>
@@ -22531,11 +21685,11 @@
       <c r="L4" t="n">
         <v>19.580987453460693</v>
       </c>
-      <c r="M4" t="n">
-        <v>-14.187559763590496</v>
-      </c>
-      <c r="N4" t="e">
-        <v>#N/A</v>
+      <c r="M4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-14.209624131520592</v>
       </c>
       <c r="O4" t="e">
         <v>#N/A</v>
@@ -22543,11 +21697,11 @@
       <c r="P4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q4" t="n">
-        <v>5.3594342321692066E-5</v>
-      </c>
-      <c r="R4" t="e">
-        <v>#N/A</v>
+      <c r="Q4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.2780914332170557E-5</v>
       </c>
       <c r="S4" t="e">
         <v>#N/A</v>
@@ -22576,10 +21730,10 @@
         <v>156</v>
       </c>
       <c r="E5" t="n">
+        <v>15.984667460123697</v>
+      </c>
+      <c r="F5" t="n">
         <v>24.40922673543294</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15.984667460123697</v>
       </c>
       <c r="G5" t="n">
         <v>17.9902826944987</v>
@@ -22588,10 +21742,10 @@
         <v>19.55420430501302</v>
       </c>
       <c r="I5" t="n">
-        <v>24.31469662984212</v>
+        <v>15.94433609644572</v>
       </c>
       <c r="J5" t="n">
-        <v>15.94433609644572</v>
+        <v>24.292632261912026</v>
       </c>
       <c r="K5" t="n">
         <v>17.92098347345988</v>
@@ -22600,10 +21754,10 @@
         <v>19.580987453460693</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.09453010559082031</v>
+        <v>-0.04033136367797674</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04033136367797674</v>
+        <v>-0.1165944735209159</v>
       </c>
       <c r="O5" t="n">
         <v>-0.06929922103881836</v>
@@ -22612,10 +21766,10 @@
         <v>0.02678314844767371</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9365772465762889</v>
+        <v>0.972431569982792</v>
       </c>
       <c r="R5" t="n">
-        <v>0.972431569982792</v>
+        <v>0.9223623478815476</v>
       </c>
       <c r="S5" t="n">
         <v>0.953100847649869</v>
@@ -22627,7 +21781,7 @@
         <v>0.981040219006916</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9546777272030337</v>
+        <v>0.9401881085112223</v>
       </c>
     </row>
     <row r="6">
@@ -22644,10 +21798,10 @@
         <v>156</v>
       </c>
       <c r="E6" t="n">
+        <v>16.81464385986328</v>
+      </c>
+      <c r="F6" t="n">
         <v>26.00885581970215</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16.81464385986328</v>
       </c>
       <c r="G6" t="n">
         <v>19.226727803548176</v>
@@ -22656,10 +21810,10 @@
         <v>20.676441828409832</v>
       </c>
       <c r="I6" t="n">
-        <v>24.31469662984212</v>
+        <v>15.94433609644572</v>
       </c>
       <c r="J6" t="n">
-        <v>15.94433609644572</v>
+        <v>24.292632261912026</v>
       </c>
       <c r="K6" t="n">
         <v>17.92098347345988</v>
@@ -22668,10 +21822,10 @@
         <v>19.580987453460693</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.6941591898600272</v>
+        <v>-0.8703077634175607</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.8703077634175607</v>
+        <v>-1.7162235577901228</v>
       </c>
       <c r="O6" t="n">
         <v>-1.3057443300882952</v>
@@ -22680,10 +21834,10 @@
         <v>-1.0954543749491386</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.30903471383965064</v>
+        <v>0.5470301427884179</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5470301427884179</v>
+        <v>0.3043443402837614</v>
       </c>
       <c r="S6" t="n">
         <v>0.40451235424593807</v>
@@ -22695,7 +21849,7 @@
         <v>0.4695978941009829</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6580836876010254</v>
+        <v>0.6480956241646068</v>
       </c>
     </row>
     <row r="7">
@@ -22712,10 +21866,10 @@
         <v>282</v>
       </c>
       <c r="E7" t="n">
+        <v>16.006302197774254</v>
+      </c>
+      <c r="F7" t="n">
         <v>24.52516492207845</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.006302197774254</v>
       </c>
       <c r="G7" t="n">
         <v>18.01806195576986</v>
@@ -22724,10 +21878,10 @@
         <v>19.68855762481689</v>
       </c>
       <c r="I7" t="n">
-        <v>24.31469662984212</v>
+        <v>15.94433609644572</v>
       </c>
       <c r="J7" t="n">
-        <v>15.94433609644572</v>
+        <v>24.292632261912026</v>
       </c>
       <c r="K7" t="n">
         <v>17.92098347345988</v>
@@ -22736,10 +21890,10 @@
         <v>19.580987453460693</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.21046829223632812</v>
+        <v>-0.061966101328533085</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.061966101328533085</v>
+        <v>-0.2325326601664237</v>
       </c>
       <c r="O7" t="n">
         <v>-0.0970784823099784</v>
@@ -22748,10 +21902,10 @@
         <v>-0.10757017135619762</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8642566520018746</v>
+        <v>0.9579577268692461</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9579577268692461</v>
+        <v>0.851139398940931</v>
       </c>
       <c r="S7" t="n">
         <v>0.9349243366787082</v>
@@ -22763,7 +21917,7 @@
         <v>0.9402578916061559</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9191697934335277</v>
+        <v>0.9052190963130424</v>
       </c>
     </row>
     <row r="8">
@@ -22780,10 +21934,10 @@
         <v>156</v>
       </c>
       <c r="E8" t="n">
+        <v>16.030060132344563</v>
+      </c>
+      <c r="F8" t="n">
         <v>24.016351699829105</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.030060132344563</v>
       </c>
       <c r="G8" t="n">
         <v>17.517354011535645</v>
@@ -22792,10 +21946,10 @@
         <v>19.183052698771156</v>
       </c>
       <c r="I8" t="n">
-        <v>24.31469662984212</v>
+        <v>15.94433609644572</v>
       </c>
       <c r="J8" t="n">
-        <v>15.94433609644572</v>
+        <v>24.292632261912026</v>
       </c>
       <c r="K8" t="n">
         <v>17.92098347345988</v>
@@ -22804,10 +21958,10 @@
         <v>19.580987453460693</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2983449300130161</v>
+        <v>-0.08572403589884203</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.08572403589884203</v>
+        <v>0.2762805620829205</v>
       </c>
       <c r="O8" t="n">
         <v>0.4036294619242362</v>
@@ -22816,10 +21970,10 @@
         <v>0.3979347546895369</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.2297328455739183</v>
+        <v>0.942311505534324</v>
       </c>
       <c r="R8" t="n">
-        <v>0.942311505534324</v>
+        <v>1.2110685785470068</v>
       </c>
       <c r="S8" t="n">
         <v>1.3228316436040322</v>
@@ -22831,7 +21985,7 @@
         <v>1.179858128303452</v>
       </c>
       <c r="V8" t="n">
-        <v>1.0422717918994062</v>
+        <v>1.0264527145212223</v>
       </c>
     </row>
     <row r="9">
@@ -22848,10 +22002,10 @@
         <v>156</v>
       </c>
       <c r="E9" t="n">
+        <v>17.50991153717041</v>
+      </c>
+      <c r="F9" t="n">
         <v>26.322041829427086</v>
-      </c>
-      <c r="F9" t="n">
-        <v>17.50991153717041</v>
       </c>
       <c r="G9" t="n">
         <v>20.28189754486084</v>
@@ -22860,10 +22014,10 @@
         <v>21.164042154947918</v>
       </c>
       <c r="I9" t="n">
-        <v>24.31469662984212</v>
+        <v>15.94433609644572</v>
       </c>
       <c r="J9" t="n">
-        <v>15.94433609644572</v>
+        <v>24.292632261912026</v>
       </c>
       <c r="K9" t="n">
         <v>17.92098347345988</v>
@@ -22872,10 +22026,10 @@
         <v>19.580987453460693</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.0073451995849645</v>
+        <v>-1.5655754407246896</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.5655754407246896</v>
+        <v>-2.02940956751506</v>
       </c>
       <c r="O9" t="n">
         <v>-2.360914071400959</v>
@@ -22884,10 +22038,10 @@
         <v>-1.5830547014872245</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.24873040858488843</v>
+        <v>0.33784292762069057</v>
       </c>
       <c r="R9" t="n">
-        <v>0.33784292762069057</v>
+        <v>0.244955303463276</v>
       </c>
       <c r="S9" t="n">
         <v>0.19466776705934602</v>
@@ -22899,7 +22053,7 @@
         <v>0.27999738570844146</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8883311819342805</v>
+        <v>0.8748485377586545</v>
       </c>
     </row>
   </sheetData>
@@ -22970,22 +22124,22 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.053424984739991764</v>
+        <v>0.1991507855001989</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5023109318265604</v>
+        <v>1.3613631328946314</v>
       </c>
       <c r="H2" t="n">
-        <v>0.964</v>
+        <v>0.868</v>
       </c>
       <c r="I2" t="n">
-        <v>0.964</v>
+        <v>0.868</v>
       </c>
       <c r="J2" t="s">
         <v>446</v>
       </c>
       <c r="K2" t="n">
-        <v>1.112</v>
+        <v>1.1326</v>
       </c>
       <c r="L2" t="s">
         <v>447</v>
@@ -23008,22 +22162,22 @@
         <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6137704738443428</v>
+        <v>1.6124499718200602</v>
       </c>
       <c r="G3" t="n">
-        <v>1.833843807957625</v>
+        <v>1.968046430786901</v>
       </c>
       <c r="H3" t="n">
-        <v>0.259</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>0.777</v>
+        <v>0.75</v>
       </c>
       <c r="J3" t="s">
         <v>446</v>
       </c>
       <c r="K3" t="n">
-        <v>1.1480000000000001</v>
+        <v>1.174</v>
       </c>
       <c r="L3" t="s">
         <v>448</v>
@@ -23046,22 +22200,22 @@
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.828865177329715</v>
+        <v>1.8288651773297144</v>
       </c>
       <c r="G4" t="n">
-        <v>1.2835217554092138</v>
+        <v>1.283521755409214</v>
       </c>
       <c r="H4" t="n">
         <v>0.274</v>
       </c>
       <c r="I4" t="n">
-        <v>0.777</v>
+        <v>0.75</v>
       </c>
       <c r="J4" t="s">
         <v>446</v>
       </c>
       <c r="K4" t="n">
-        <v>1.1840000000000002</v>
+        <v>1.2154</v>
       </c>
       <c r="L4" t="s">
         <v>449</v>
